--- a/Jogos_do_Dia/2023-05-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,28 +705,28 @@
         <v>3.23</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="3">
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.59</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.73</v>
@@ -911,13 +911,13 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
         <v>1.71</v>
@@ -935,28 +935,28 @@
         <v>3.57</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
@@ -990,34 +990,34 @@
         <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M5" t="n">
         <v>3.75</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>1.73</v>
@@ -1026,13 +1026,13 @@
         <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>1.21</v>
@@ -1050,28 +1050,28 @@
         <v>2.88</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1204,26 +1204,26 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1265,28 +1265,28 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.83</v>
+        <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.06</v>
+        <v>2.6</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.07</v>
+        <v>2.59</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1668,12 +1668,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="X11" t="n">
-        <v>0.71</v>
+        <v>1.67</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.6</v>
+        <v>3.38</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,80 +1894,80 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2013,76 +2013,76 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>2.61</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2.24</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>7.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N14" t="n">
         <v>2.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P14" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="R14" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.27</v>
+        <v>2.91</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,26 +2124,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2185,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.59</v>
+        <v>3.04</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,80 +2239,80 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,80 +2354,80 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X17" t="n">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.29</v>
+        <v>2.79</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2469,89 +2469,89 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.61</v>
       </c>
       <c r="J18" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="P18" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X18" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
         <v>1.69</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.91</v>
+        <v>2.52</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2584,26 +2584,26 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y19" t="n">
         <v>2</v>
       </c>
-      <c r="X19" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.86</v>
-      </c>
       <c r="Z19" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.08</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>2.89</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>2.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>2.53</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2814,110 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>4.79</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N21" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.24</v>
+        <v>2.95</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Mexico Ascenso MX</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,80 +2929,80 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>2.46</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.08</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>3.16</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
         <v>8.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="O22" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="V22" t="n">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>0.63</v>
+        <v>2.19</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mexico Ascenso MX</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,104 +3159,679 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Morelia</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>13</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>13</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.37</v>
       </c>
-      <c r="M24" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
+      <c r="U29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -690,10 +690,10 @@
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
         <v>1.37</v>
@@ -805,10 +805,10 @@
         <v>2.05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="X3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Y3" t="n">
         <v>1.89</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.59</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -893,10 +893,10 @@
         <v>3.6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -935,13 +935,13 @@
         <v>3.57</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1.23</v>
@@ -950,7 +950,7 @@
         <v>1.42</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="AH4" t="n">
         <v>2.11</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1008,10 +1008,10 @@
         <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1053,7 +1053,7 @@
         <v>1.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>3.45</v>
@@ -1077,7 +1077,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,80 +1089,80 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
         <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.87</v>
+        <v>3.29</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1438,12 +1438,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1495,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>0.67</v>
+        <v>1.57</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.59</v>
+        <v>3.07</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1668,12 +1668,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="X11" t="n">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.61</v>
+        <v>1.09</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.38</v>
+        <v>2.79</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,80 +1779,80 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,80 +1894,80 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.29</v>
+        <v>2.59</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,80 +2009,80 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="X14" t="n">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.22</v>
+        <v>1.61</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.91</v>
+        <v>3.38</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,26 +2124,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2188,16 +2188,16 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.04</v>
+        <v>2.87</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,110 +2239,110 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.74</v>
+        <v>2.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.91</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.44</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.49</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB16" t="n">
         <v>1.77</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,80 +2354,80 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W17" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2469,101 +2469,101 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="H18" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>2.61</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W18" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -2588,12 +2588,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
         <v>0.67</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.07</v>
+        <v>2.83</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2712,52 +2712,52 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="H20" t="n">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -2775,34 +2775,34 @@
         <v>2.53</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AC20" t="n">
         <v>9.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG20" t="n">
         <v>2.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Mexico Ascenso MX</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2814,110 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="I21" t="n">
-        <v>4.79</v>
+        <v>3.16</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
         <v>8.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="O21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="V21" t="n">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="W21" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
-        <v>0.63</v>
+        <v>2.19</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.75</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.42</v>
+        <v>2.47</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mexico Ascenso MX</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,104 +2929,104 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Morelia</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="H22" t="n">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
-        <v>3.16</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
         <v>8.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="O22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.62</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.9</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>2.19</v>
+        <v>0.63</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="23">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H23" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="O23" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3172,37 +3172,37 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
         <v>1.91</v>
@@ -3211,13 +3211,13 @@
         <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
         <v>2</v>
@@ -3244,19 +3244,19 @@
         <v>2.7</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG24" t="n">
         <v>2.1</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="25">
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>1.08</v>
@@ -3302,16 +3302,16 @@
         <v>8.35</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>2.71</v>
       </c>
       <c r="N25" t="n">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="O25" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3329,7 +3329,7 @@
         <v>1.28</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
         <v>1.65</v>
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3423,10 +3423,10 @@
         <v>3.9</v>
       </c>
       <c r="N26" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3492,7 +3492,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.77</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="L27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.4</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Q27" t="n">
         <v>2.75</v>
       </c>
-      <c r="N27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE27" t="n">
         <v>1.29</v>
       </c>
-      <c r="V27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AF27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AG27" t="n">
         <v>1.98</v>
       </c>
-      <c r="AC27" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>2.12</v>
-      </c>
       <c r="AH27" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3619,110 +3619,110 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>César Vallejo</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.38</v>
+        <v>2.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>6.12</v>
+        <v>2.45</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.77</v>
+        <v>2.22</v>
       </c>
       <c r="O28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W28" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3</v>
-      </c>
       <c r="X28" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.5</v>
+        <v>6.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>3.5</v>
+        <v>2.18</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.98</v>
+        <v>2.84</v>
       </c>
       <c r="AI28" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mexico Liga MX</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,104 +3734,104 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>César Vallejo</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.96</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.77</v>
-      </c>
       <c r="P29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB29" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="AE29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF29" t="n">
         <v>1.29</v>
       </c>
-      <c r="AF29" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AG29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH29" t="n">
         <v>1.98</v>
       </c>
-      <c r="AH29" t="n">
-        <v>2.58</v>
-      </c>
       <c r="AI29" t="n">
-        <v>3.48</v>
+        <v>2.44</v>
       </c>
     </row>
   </sheetData>
